--- a/code/random_forest-outfiles/RFECV 1 2 3 4.xlsx
+++ b/code/random_forest-outfiles/RFECV 1 2 3 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB7E3E-1CCD-489A-A1D4-02EA8D662C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D59B8-3027-468D-AA16-7DC364ED3E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2478,7 +2477,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/random_forest-outfiles/RFECV 1 2 3 4.xlsx
+++ b/code/random_forest-outfiles/RFECV 1 2 3 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D59B8-3027-468D-AA16-7DC364ED3E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E110A9D-744D-4345-B869-254C84FBCB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Iter. 4 (w/ lags)</t>
+  </si>
+  <si>
+    <t>Iter. 3 (w/ lags)</t>
+  </si>
+  <si>
+    <t>Iter. 2 (w/o lags)</t>
+  </si>
+  <si>
+    <t>Iter. 1 (w/o lags)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -105,586 +122,6 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15472341273796472"/>
-          <c:y val="4.5920453274647444E-2"/>
-          <c:w val="0.82277307108763298"/>
-          <c:h val="0.74324423095250336"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Iter. 4 (w/ lags)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.71650400924999991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70947379474999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70575313891666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70218185716666659</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69938973550000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69912160475000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69794408125000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32AD-4234-AD73-9E550EA63983}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Iter. 3 (w/ lags)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.69056899054545451</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68761855218181822</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68648228027272729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68519403800000012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68439306145454548</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68335206881818178</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.68239668354545446</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.68131957627272732</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68080698963636366</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-32AD-4234-AD73-9E550EA63983}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Iter. 2 (w/o lags)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="19C3FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$J$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.71055580415384623</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70579075792307688</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70196709307692318</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70094299261538451</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69969575930769234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69848587769230741</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69697472830769247</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.69579273392307706</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6949755251538462</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-32AD-4234-AD73-9E550EA63983}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Iter. 1 (w/o lags)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="9E5ECE"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.65635820678828283</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65440972031445177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65298649188312818</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65181629281155984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65137383204084165</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65127670944023575</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-32AD-4234-AD73-9E550EA63983}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="53411151"/>
-        <c:axId val="53405743"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="53411151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Rank During RFECV</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="53405743"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="53405743"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.72000000000000008"/>
-          <c:min val="0.65000000000000013"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average CV R-squared</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="53411151"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0000000000000002E-2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11920734908136484"/>
-          <c:y val="0.89143820114138084"/>
-          <c:w val="0.84769641294838149"/>
-          <c:h val="0.10552220452260101"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -706,27 +143,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$G$9</c:f>
+              <c:f>Sheet1!$B$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.69349675268439592</c:v>
+                  <c:v>0.69637904228108638</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68932320629233668</c:v>
+                  <c:v>0.69218782781592614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68679725103736133</c:v>
+                  <c:v>0.68952739604473678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68503379514840268</c:v>
+                  <c:v>0.68772400995801086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68371309707576988</c:v>
+                  <c:v>0.68636792374647926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68305906517518122</c:v>
+                  <c:v>0.6856922902346253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,6 +459,790 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14857994800045518"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.82207571877731178"/>
+          <c:h val="0.77150116652085154"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iter. 4 (w/ lags)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.71650400924999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70947379474999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70575313891666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70218185716666659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69938973550000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69912160475000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69794408125000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-405C-4488-B619-367B255299B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iter. 3 (w/ lags)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.69056899054545451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68761855218181822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68648228027272729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68519403800000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68439306145454548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68335206881818178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68239668354545446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68131957627272732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68080698963636366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-405C-4488-B619-367B255299B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iter. 2 (w/o lags)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.71055580415384623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70579075792307688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70196709307692318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70094299261538451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69969575930769234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69848587769230741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69697472830769247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69579273392307706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6949755251538462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-405C-4488-B619-367B255299B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iter. 1 (w/o lags)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="9E5ECE"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.66788736517504477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66586820640880973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6639070719126301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66257715204999235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66199313872367915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66180960967801206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66178061613816885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-405C-4488-B619-367B255299B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="41873616"/>
+        <c:axId val="41878192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41873616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Feature Ranking during RFECV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41878192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41878192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average CV R-squared</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41873616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69536625251491913"/>
+          <c:y val="1.0589822105570147E-3"/>
+          <c:w val="0.29843995589107708"/>
+          <c:h val="0.19801509186351707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1619,7 +1840,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1646,8 +1867,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1727,11 +1948,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1742,11 +1958,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1758,7 +1969,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1778,9 +1989,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1793,10 +2001,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1836,22 +2044,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1956,8 +2165,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2089,19 +2298,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2115,6 +2325,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2138,23 +2359,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D282FFAF-D7F3-4A47-BE2B-B5C2D63BD62B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6D39F6-177E-42B2-8C68-19DB82C19BFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,23 +2395,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6D39F6-177E-42B2-8C68-19DB82C19BFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF6C97F-683B-4004-8A0B-97A1870A01F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,176 +2827,288 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.65635820678828283</v>
+        <v>0.66788736517504477</v>
       </c>
       <c r="C5">
-        <v>0.65440972031445177</v>
+        <v>0.66586820640880973</v>
       </c>
       <c r="D5">
-        <v>0.65298649188312818</v>
+        <v>0.6639070719126301</v>
       </c>
       <c r="E5">
-        <v>0.65181629281155984</v>
+        <v>0.66257715204999235</v>
       </c>
       <c r="F5">
-        <v>0.65137383204084165</v>
+        <v>0.66199313872367915</v>
       </c>
       <c r="G5">
-        <v>0.65127670944023575</v>
+        <v>0.66180960967801206</v>
       </c>
       <c r="H5">
-        <v>0.66614635898685404</v>
+        <v>0.66178061613816885</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>0.67172990884083195</v>
-      </c>
-      <c r="C6">
-        <v>0.6699596516840377</v>
-      </c>
-      <c r="D6">
-        <v>0.66850138542462878</v>
-      </c>
-      <c r="E6">
-        <v>0.66693301900680035</v>
-      </c>
-      <c r="F6">
-        <v>0.66634481637718346</v>
-      </c>
-      <c r="G6">
-        <v>0.66616789553598854</v>
-      </c>
-      <c r="H6">
-        <v>0.66614635898685404</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" ref="B10:H10" si="0">AVERAGE(B2:B5)</f>
+        <v>0.69637904228108638</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.69218782781592614</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.68952739604473678</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.68772400995801086</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.68636792374647926</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.6856922902346253</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.68477402731032888</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:J10" si="1">AVERAGE(I2:I5)</f>
+        <v>0.68855615509790224</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.68789125739510493</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0.63176348350420386</v>
-      </c>
-      <c r="C7">
-        <v>0.62952983012311436</v>
-      </c>
-      <c r="D7">
-        <v>0.62816266221672734</v>
-      </c>
-      <c r="E7">
-        <v>0.62762953089917484</v>
-      </c>
-      <c r="F7">
-        <v>0.62742025710269478</v>
-      </c>
-      <c r="G7">
-        <v>0.62745081168703143</v>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f t="shared" ref="B9:J9" si="0">AVERAGE(B2:B5)</f>
-        <v>0.69349675268439592</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.68932320629233668</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.68679725103736133</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.68503379514840268</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.68371309707576988</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.68305906517518122</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.68586546302250018</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.68855615509790224</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.68789125739510493</v>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="B21">
+        <v>0.70197177033693803</v>
+      </c>
+      <c r="C21">
+        <v>0.70192546570118997</v>
+      </c>
+      <c r="D21">
+        <v>0.69936327741597704</v>
+      </c>
+      <c r="E21">
+        <v>0.697654409599752</v>
+      </c>
+      <c r="F21">
+        <v>0.69688443267618405</v>
+      </c>
+      <c r="G21">
+        <v>0.69646525996205899</v>
+      </c>
+      <c r="H21">
+        <v>0.69651744283929495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="E26" t="s">
         <v>3</v>
       </c>
-      <c r="E16">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.71650400924999991</v>
+      </c>
+      <c r="C27">
+        <v>0.69056899054545451</v>
+      </c>
+      <c r="D27">
+        <v>0.71055580415384623</v>
+      </c>
+      <c r="E27">
+        <v>0.66788736517504477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0.70947379474999994</v>
+      </c>
+      <c r="C28">
+        <v>0.68761855218181822</v>
+      </c>
+      <c r="D28">
+        <v>0.70579075792307688</v>
+      </c>
+      <c r="E28">
+        <v>0.66586820640880973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0.70575313891666669</v>
+      </c>
+      <c r="C29">
+        <v>0.68648228027272729</v>
+      </c>
+      <c r="D29">
+        <v>0.70196709307692318</v>
+      </c>
+      <c r="E29">
+        <v>0.6639070719126301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>4</v>
       </c>
-      <c r="F16">
+      <c r="B30">
+        <v>0.70218185716666659</v>
+      </c>
+      <c r="C30">
+        <v>0.68519403800000012</v>
+      </c>
+      <c r="D30">
+        <v>0.70094299261538451</v>
+      </c>
+      <c r="E30">
+        <v>0.66257715204999235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="B31">
+        <v>0.69938973550000005</v>
+      </c>
+      <c r="C31">
+        <v>0.68439306145454548</v>
+      </c>
+      <c r="D31">
+        <v>0.69969575930769234</v>
+      </c>
+      <c r="E31">
+        <v>0.66199313872367915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>6</v>
       </c>
-      <c r="H16">
+      <c r="B32">
+        <v>0.69912160475000007</v>
+      </c>
+      <c r="C32">
+        <v>0.68335206881818178</v>
+      </c>
+      <c r="D32">
+        <v>0.69848587769230741</v>
+      </c>
+      <c r="E32">
+        <v>0.66180960967801206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>7</v>
       </c>
-      <c r="I16">
+      <c r="B33">
+        <v>0.69794408125000007</v>
+      </c>
+      <c r="C33">
+        <v>0.68239668354545446</v>
+      </c>
+      <c r="D33">
+        <v>0.69697472830769247</v>
+      </c>
+      <c r="E33">
+        <v>0.66178061613816885</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>8</v>
       </c>
-      <c r="J16">
+      <c r="C34">
+        <v>0.68131957627272732</v>
+      </c>
+      <c r="D34">
+        <v>0.69579273392307706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0.70197177033693803</v>
-      </c>
-      <c r="C20">
-        <v>0.70192546570118997</v>
-      </c>
-      <c r="D20">
-        <v>0.69936327741597704</v>
-      </c>
-      <c r="E20">
-        <v>0.697654409599752</v>
-      </c>
-      <c r="F20">
-        <v>0.69688443267618405</v>
-      </c>
-      <c r="G20">
-        <v>0.69646525996205899</v>
-      </c>
-      <c r="H20">
-        <v>0.69651744283929495</v>
+      <c r="C35">
+        <v>0.68080698963636366</v>
+      </c>
+      <c r="D35">
+        <v>0.6949755251538462</v>
       </c>
     </row>
   </sheetData>
